--- a/Our Team/Contact Info.xlsx
+++ b/Our Team/Contact Info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -26,12 +26,12 @@
     <t>Role</t>
   </si>
   <si>
+    <t>Alex Van Dyne</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Alex Van Dyne</t>
-  </si>
-  <si>
     <t>Ben Plum</t>
   </si>
   <si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>Berkeley, CA</t>
+  </si>
+  <si>
+    <t>Steven Sewell</t>
+  </si>
+  <si>
+    <t>stevenhasspam@gmail.com</t>
+  </si>
+  <si>
+    <t>714.552.9943</t>
+  </si>
+  <si>
+    <t>Community Manager</t>
   </si>
 </sst>
 </file>
@@ -148,11 +160,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -182,7 +197,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.57"/>
-    <col customWidth="1" min="2" max="2" width="23.0"/>
+    <col customWidth="1" min="2" max="2" width="26.86"/>
     <col customWidth="1" min="4" max="4" width="52.14"/>
     <col customWidth="1" min="5" max="5" width="23.86"/>
     <col customWidth="1" min="6" max="6" width="21.14"/>
@@ -202,7 +217,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -305,6 +320,23 @@
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -338,7 +370,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
